--- a/profesores.xlsx
+++ b/profesores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>dniprofesor</t>
   </si>
@@ -42,18 +42,12 @@
     <t>44455557P</t>
   </si>
   <si>
-    <t>44455558P</t>
-  </si>
-  <si>
     <t>Marta Domínguez</t>
   </si>
   <si>
     <t>David Rivera</t>
   </si>
   <si>
-    <t>Ana García</t>
-  </si>
-  <si>
     <t>Miguel Fernández</t>
   </si>
   <si>
@@ -63,40 +57,19 @@
     <t>asddd@asd.asd</t>
   </si>
   <si>
-    <t>asdddd@asd.asd</t>
-  </si>
-  <si>
     <t>asddddd@asd.asd</t>
   </si>
   <si>
     <t>Lenguajes y sistemas informáticos</t>
   </si>
   <si>
-    <t>Regulación x</t>
-  </si>
-  <si>
     <t>Redes</t>
   </si>
   <si>
     <t>Informática</t>
   </si>
   <si>
-    <t>Dereito Privado</t>
-  </si>
-  <si>
     <t>Enxeñaría de sistemas e automática</t>
-  </si>
-  <si>
-    <t>numerodetfgs</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -441,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -457,7 +430,7 @@
     <col min="6" max="6" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -473,88 +446,56 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -562,7 +503,6 @@
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
-    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/profesores.xlsx
+++ b/profesores.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>dniprofesor</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>Enxeñaría de sistemas e automática</t>
+  </si>
+  <si>
+    <t>44455558P</t>
+  </si>
+  <si>
+    <t>Elena Gómez</t>
+  </si>
+  <si>
+    <t>asdddddd@asd.asd</t>
   </si>
 </sst>
 </file>
@@ -414,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -498,11 +507,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
     <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
